--- a/test-output/Output Files/Used Cars.xlsx
+++ b/test-output/Output Files/Used Cars.xlsx
@@ -12,27 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
-    <t>Maruti 800</t>
-  </si>
-  <si>
-    <t>Maruti Alto</t>
-  </si>
-  <si>
-    <t>Maruti Swift</t>
-  </si>
-  <si>
-    <t>Hyundai I10</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing</t>
-  </si>
-  <si>
-    <t>Honda City</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner</t>
+    <t/>
   </si>
   <si>
     <t>Toyota Innova</t>
@@ -94,28 +76,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/Output Files/Used Cars.xlsx
+++ b/test-output/Output Files/Used Cars.xlsx
@@ -12,9 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t/>
+    <t>Maruti 800</t>
+  </si>
+  <si>
+    <t>Maruti Alto</t>
+  </si>
+  <si>
+    <t>Maruti Swift</t>
+  </si>
+  <si>
+    <t>Hyundai I10</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing</t>
+  </si>
+  <si>
+    <t>Honda City</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner</t>
   </si>
   <si>
     <t>Toyota Innova</t>
@@ -76,28 +94,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
